--- a/biology/Zoologie/Able_de_Heckel/Able_de_Heckel.xlsx
+++ b/biology/Zoologie/Able_de_Heckel/Able_de_Heckel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Able de Heckel (Leucaspius delineatus) est une espèce de petits poissons d'eau douce d'Europe et d'Asie. C'est la seule espèce du genre Leucaspius (monotypique).
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leucaspius delineatus[3] se rencontre dans les eaux douces d'Europe et d'Asie. Il est présent :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leucaspius delineatus se rencontre dans les eaux douces d'Europe et d'Asie. Il est présent :
 depuis la partie basse du Rhin et dans le nord de l'Allemagne jusque dans la partie sud du bassin de la Baltique ;
 de la mer Noire jusqu'à la Caspienne, dont le bassin du Rioni et de la Koura ;
 autour de la mer Egée, depuis la Maritsa jusqu'à la Mesta.
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leucaspius delineatus est un poisson mince de couleur argentée qui ressemble à une petite ablette. Le mâle mesure jusqu'à 9 cm, la femelle jusqu'à 12 cm pour environ 5g. Sa bouche est orientée vers le haut. Il a une ligne latérale qui s'allonge de sept à dix écailles à partir des branchies. Sa queue est courte et consiste en 11 à 14 rayons[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leucaspius delineatus est un poisson mince de couleur argentée qui ressemble à une petite ablette. Le mâle mesure jusqu'à 9 cm, la femelle jusqu'à 12 cm pour environ 5g. Sa bouche est orientée vers le haut. Il a une ligne latérale qui s'allonge de sept à dix écailles à partir des branchies. Sa queue est courte et consiste en 11 à 14 rayons. 
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un poisson grégaire qui vit en groupes denses.
 </t>
@@ -608,10 +626,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom commun lui a été donné en référence à Johann Jacob Heckel, zoologiste autrichien, qui l'a décrit en 1843.
-Son nom d'espèce[3], delineatus, du préfixe latin de, privatif, et lineatus, « ligne », lui a été donné en référence à l'absence apparente de ligne latérale.
+Son nom d'espèce, delineatus, du préfixe latin de, privatif, et lineatus, « ligne », lui a été donné en référence à l'absence apparente de ligne latérale.
 </t>
         </is>
       </c>
@@ -640,15 +660,17 @@
           <t>Noms communs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>En français :
 Able de Heckel ;
 Able de Stymphale ;
-Dos vert[3] ;
+Dos vert ;
 Mini ablette ;
-Sans mère[3].
-En anglais[3] :
+Sans mère.
+En anglais :
 Belica ;
 Foy ;
 Rain-bleak ;
@@ -680,7 +702,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Heckel, 1843 : Abbildungen und Beschreibungen der Fische Syriens : nebst einer neuen Classification und Characteristik sämmtliches Gattungen der Cyprinen  p. 1-372 (texte intégral).</t>
         </is>
